--- a/已提交资料清单.xlsx
+++ b/已提交资料清单.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975FCB59-B1A2-4E56-AEAA-ED3CBDBC7152}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6905B12B-0A1D-49EC-96A0-16EB7702C4E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>专业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,23 @@
   <si>
     <t>第一次、第二次和第三次投标文件技术澄清补充材料
 关于蓄电池产品方案释疑--会议补充资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产云平台技术规格书1~2册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印版（PDF和word）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中UPS投标货物技术规格书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.正线技术规格书1~3册
+2.主变技术规格书1~4册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -304,20 +321,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -343,14 +351,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,11 +651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,678 +667,691 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="1" t="s">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="3"/>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
